--- a/IMDB/Top Rated Movies.xlsx
+++ b/IMDB/Top Rated Movies.xlsx
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>The Terminator</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>The Terminator</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">

--- a/IMDB/Top Rated Movies.xlsx
+++ b/IMDB/Top Rated Movies.xlsx
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Green Mile</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>The Green Mile</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Top Gun: Maverick</t>
+          <t>The Dark Knight Rises</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Dark Knight Rises</t>
+          <t>Top Gun: Maverick</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>Inglourious Basterds</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Inglourious Basterds</t>
+          <t>Coco</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Avengers: Endgame</t>
+          <t>Mononoke-hime</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mononoke-hime</t>
+          <t>Avengers: Endgame</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lawrence of Arabia</t>
+          <t>Citizen Kane</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Citizen Kane</t>
+          <t>Lawrence of Arabia</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Double Indemnity</t>
+          <t>The Apartment</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>The Apartment</t>
+          <t>Double Indemnity</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>To Kill a Mockingbird</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>To Kill a Mockingbird</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Die Hard</t>
+          <t>Snatch</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Snatch</t>
+          <t>Die Hard</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Monty Python and the Holy Grail</t>
+          <t>Yôjinbô</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Yôjinbô</t>
+          <t>Monty Python and the Holy Grail</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rashômon</t>
+          <t>The Great Escape</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The Great Escape</t>
+          <t>Rashômon</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Raging Bull</t>
+          <t>The Thing</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>The Thing</t>
+          <t>Raging Bull</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Gone with the Wind</t>
+          <t>V for Vendetta</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>V for Vendetta</t>
+          <t>Gone with the Wind</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Gone Girl</t>
+          <t>The General</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>The General</t>
+          <t>Gone Girl</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4675,12 +4675,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hacksaw Ridge</t>
+          <t>Sherlock Jr.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sherlock Jr.</t>
+          <t>Hacksaw Ridge</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Everything Everywhere All at Once</t>
+          <t>La passion de Jeanne d'Arc</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>La passion de Jeanne d'Arc</t>
+          <t>Hotel Rwanda</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5049,12 +5049,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hotel Rwanda</t>
+          <t>Everything Everywhere All at Once</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pather Panchali</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Pather Panchali</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>The Exorcist</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>The Exorcist</t>
+          <t>The Best Years of Our Lives</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5445,12 +5445,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>The Best Years of Our Lives</t>
+          <t>The Incredibles</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>The Incredibles</t>
+          <t>To Be or Not to Be</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>To Be or Not to Be</t>
+          <t>La battaglia di Algeri</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>La battaglia di Algeri</t>
+          <t>The Grapes of Wrath</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>The Grapes of Wrath</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Hachi: A Dog's Tale</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Hachi: A Dog's Tale</t>
+          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+          <t>Amores perros</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Amores perros</t>
+          <t>La haine</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5665,12 +5665,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>La haine</t>
+          <t>Babam ve Oglum</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Babam ve Oglum</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>The Sound of Music</t>
+          <t>Life of Brian</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Life of Brian</t>
+          <t>Ah-ga-ssi</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ah-ga-ssi</t>
+          <t>The Sound of Music</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
